--- a/Document/5.NHOM6_TESTCASE-Final.xlsx
+++ b/Document/5.NHOM6_TESTCASE-Final.xlsx
@@ -2441,51 +2441,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Copy of performance-test (2)" xfId="1"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="60"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="38"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <b/>
@@ -3943,7 +3899,7 @@
   <dimension ref="A1:M238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O232" sqref="O232"/>
     </sheetView>
   </sheetViews>
@@ -11017,46 +10973,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J35:J195 F149:F195">
-    <cfRule type="cellIs" dxfId="74" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="133" stopIfTrue="1" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="134" stopIfTrue="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="135" stopIfTrue="1" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29 J27:J29">
-    <cfRule type="cellIs" dxfId="71" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="72" stopIfTrue="1" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F26 J2:J26">
-    <cfRule type="cellIs" dxfId="68" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="69" stopIfTrue="1" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30 J30">
-    <cfRule type="cellIs" dxfId="65" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="65" stopIfTrue="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="66" stopIfTrue="1" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11287,7 +11243,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
